--- a/record/refill_station_record.xlsx
+++ b/record/refill_station_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Business\(2) Refills\Code\Github\refill_station_repository\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1769AD60-CDC4-4BAE-8504-9E20169B8CFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3041225-7C42-4933-95F2-01C21D17C612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Sheet Name:</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Mk1_2</t>
-  </si>
-  <si>
-    <t>Prototype for FILL with standard single 6A diaphragm pump</t>
   </si>
   <si>
     <t>Calculated calibration Factor for Load cell</t>
@@ -108,6 +105,24 @@
   </si>
   <si>
     <t>12V 6.5A</t>
+  </si>
+  <si>
+    <t>Mk1_3</t>
+  </si>
+  <si>
+    <t>Prototype for FILL with standard single 12V 6A diaphragm pump</t>
+  </si>
+  <si>
+    <t>Prototype for FILL with double 12V 8A diaphragm pump</t>
+  </si>
+  <si>
+    <t>Goodpumps 12V 8A 6L/min Double</t>
+  </si>
+  <si>
+    <t>double_01</t>
+  </si>
+  <si>
+    <t>12V 8A</t>
   </si>
 </sst>
 </file>
@@ -456,13 +471,13 @@
   <dimension ref="B2:M34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.140625" bestFit="1" customWidth="1"/>
@@ -496,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>44092</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -521,28 +536,28 @@
         <v>11</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="K8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -550,7 +565,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>10</v>
@@ -565,10 +580,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="5">
         <v>1</v>
@@ -577,13 +592,50 @@
         <v>1</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>191.45</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="11" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/record/refill_station_record.xlsx
+++ b/record/refill_station_record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Business\(2) Refills\Code\Github\refill_station_repository\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3041225-7C42-4933-95F2-01C21D17C612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6AA462-5322-4B7B-B6E3-A5B6D42294F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -168,11 +168,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -182,12 +197,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +490,7 @@
   <dimension ref="B2:M34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,143 +542,455 @@
       </c>
     </row>
     <row r="8" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>223.6</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <v>1</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>191.45</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="7">
         <v>2</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="8">
         <v>2</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
